--- a/Results/Scenario3-TwoSkillsThreeMediumThreeLow-OneSkillAllHigh/LearningBased/WithFigures/Personnel_7.xlsx
+++ b/Results/Scenario3-TwoSkillsThreeMediumThreeLow-OneSkillAllHigh/LearningBased/WithFigures/Personnel_7.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Personnel_7" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="13">
   <si>
     <t>sprint</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>idle hours</t>
+  </si>
+  <si>
+    <t>sprint time</t>
   </si>
 </sst>
 </file>
@@ -194,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,6 +380,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -535,8 +547,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -660,7 +674,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Personnel_7!$C$2:$C$131</c:f>
+              <c:f>Personnel_7!$D$2:$D$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="130"/>
@@ -1059,7 +1073,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Personnel_7!$G$2:$G$131</c:f>
+              <c:f>Personnel_7!$H$2:$H$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="130"/>
@@ -1469,7 +1483,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Personnel_7!$C$2:$C$131</c:f>
+              <c:f>Personnel_7!$D$2:$D$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="130"/>
@@ -1868,7 +1882,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Personnel_7!$H$2:$H$131</c:f>
+              <c:f>Personnel_7!$I$2:$I$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="130"/>
@@ -2285,7 +2299,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Personnel_7!$C$2:$C$131</c:f>
+              <c:f>Personnel_7!$D$2:$D$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="130"/>
@@ -2684,7 +2698,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Personnel_7!$I$2:$I$131</c:f>
+              <c:f>Personnel_7!$J$2:$J$131</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="130"/>
@@ -3092,11 +3106,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-414711440"/>
-        <c:axId val="-138500048"/>
+        <c:axId val="1478598160"/>
+        <c:axId val="1478600336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-414711440"/>
+        <c:axId val="1478598160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3125,7 +3139,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-138500048"/>
+        <c:crossAx val="1478600336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3133,7 +3147,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-138500048"/>
+        <c:axId val="1478600336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -3177,7 +3191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-414711440"/>
+        <c:crossAx val="1478598160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3212,16 +3226,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>129428</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>62753</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3508,3457 +3522,4022 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>17</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
+        <f>B2/375</f>
+        <v>4.5333333333333337E-2</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2">
         <v>7</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>64</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>6031</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C66" si="0">B3/375</f>
+        <v>16.082666666666668</v>
+      </c>
+      <c r="D3">
         <v>16</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>21</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>22</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8666666666666666E-2</v>
+      </c>
+      <c r="D4">
         <v>80</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>15</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>39</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
         <v>6025</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>16.066666666666666</v>
+      </c>
+      <c r="D5">
         <v>96</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>15</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5">
         <v>9.3999999999999897</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>43</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>6033</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>16.088000000000001</v>
+      </c>
+      <c r="D6">
         <v>96</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>22</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6">
         <v>9.3999999999999897</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
         <v>10536</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>28.096</v>
+      </c>
+      <c r="D7">
         <v>108</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>22</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7">
         <v>9.8499999999999908</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>1.45</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8">
         <v>10543</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>28.114666666666668</v>
+      </c>
+      <c r="D8">
         <v>108</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>25</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8">
         <v>9.8499999999999908</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1.45</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
         <v>14295</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>38.119999999999997</v>
+      </c>
+      <c r="D9">
         <v>118</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>25</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
         <v>10.4499999999999</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>1.45</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10">
         <v>14303</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>38.141333333333336</v>
+      </c>
+      <c r="D10">
         <v>118</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>33</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10">
         <v>10.4499999999999</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1.45</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>80</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
         <v>22181</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>59.149333333333331</v>
+      </c>
+      <c r="D11">
         <v>139</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>33</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11">
         <v>11.649999999999901</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>1.45</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>53</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+      <c r="D12">
         <v>160</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>52</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12">
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12">
         <v>11.649999999999901</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.45</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>26.4</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>13</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13">
         <v>757</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0186666666666668</v>
+      </c>
+      <c r="D13">
         <v>162</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>52</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
         <v>11.799999999999899</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1.5999999999999901</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>26.549999999999901</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>22</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14">
         <v>763</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0346666666666668</v>
+      </c>
+      <c r="D14">
         <v>162</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>45</v>
       </c>
-      <c r="E14">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14">
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14">
         <v>11.799999999999899</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1.5999999999999901</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>26.549999999999901</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15">
         <v>7516</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>20.042666666666666</v>
+      </c>
+      <c r="D15">
         <v>180</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>45</v>
       </c>
-      <c r="E15">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15">
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15">
         <v>13.149999999999901</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1.5999999999999901</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>42</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16">
         <v>7522</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>20.058666666666667</v>
+      </c>
+      <c r="D16">
         <v>180</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>36</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3</v>
       </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16">
         <v>13.149999999999901</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.5999999999999901</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>27.9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17">
         <v>10526</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>28.069333333333333</v>
+      </c>
+      <c r="D17">
         <v>188</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>36</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>3</v>
       </c>
-      <c r="F17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
         <v>13.5999999999999</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>1.5999999999999901</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>27.9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18">
         <v>10532</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>28.085333333333335</v>
+      </c>
+      <c r="D18">
         <v>188</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>42</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>5</v>
       </c>
-      <c r="F18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18">
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18">
         <v>13.5999999999999</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1.5999999999999901</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>27.9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19">
         <v>15409</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>41.090666666666664</v>
+      </c>
+      <c r="D19">
         <v>201</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>42</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>5</v>
       </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19">
         <v>14.3499999999999</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1.5999999999999901</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>27.9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20">
         <v>22</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>5.8666666666666666E-2</v>
+      </c>
+      <c r="D20">
         <v>240</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>61</v>
       </c>
-      <c r="E20">
-        <v>9</v>
-      </c>
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20">
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20">
         <v>14.3499999999999</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>1.5999999999999901</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>27.9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="B21">
         <v>6774</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>18.064</v>
+      </c>
+      <c r="D21">
         <v>258</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>61</v>
       </c>
-      <c r="E21">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21">
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21">
         <v>15.6999999999999</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>1.5999999999999901</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>29.25</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
       <c r="B22">
         <v>6780</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>18.079999999999998</v>
+      </c>
+      <c r="D22">
         <v>258</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>65</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>4</v>
       </c>
-      <c r="F22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22">
         <v>15.6999999999999</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>1.5999999999999901</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>29.25</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
       <c r="B23">
         <v>9032</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>24.085333333333335</v>
+      </c>
+      <c r="D23">
         <v>264</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>65</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>4</v>
       </c>
-      <c r="F23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23">
         <v>15.6999999999999</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1.5999999999999901</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>29.85</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
       <c r="B24">
         <v>9037</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>24.098666666666666</v>
+      </c>
+      <c r="D24">
         <v>264</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>71</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>5</v>
       </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24">
         <v>15.6999999999999</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>1.5999999999999901</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>29.85</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25">
         <v>13915</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>37.106666666666669</v>
+      </c>
+      <c r="D25">
         <v>277</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>71</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>5</v>
       </c>
-      <c r="F25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25">
         <v>16.4499999999999</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>1.5999999999999901</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>29.85</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26">
         <v>13</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>3.4666666666666665E-2</v>
+      </c>
+      <c r="D26">
         <v>320</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>89</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2</v>
       </c>
-      <c r="F26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26">
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26">
         <v>16.4499999999999</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>1.5999999999999901</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>29.85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
       <c r="B27">
         <v>1890</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>5.04</v>
+      </c>
+      <c r="D27">
         <v>325</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>89</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>2</v>
       </c>
-      <c r="F27" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27">
         <v>16.749999999999901</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>1.9</v>
       </c>
-      <c r="I27">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
       <c r="B28">
         <v>1895</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>5.0533333333333337</v>
+      </c>
+      <c r="D28">
         <v>325</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>109</v>
       </c>
-      <c r="E28">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28">
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28">
         <v>16.749999999999901</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1.9</v>
       </c>
-      <c r="I28">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
       <c r="B29">
         <v>10897</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>29.058666666666667</v>
+      </c>
+      <c r="D29">
         <v>349</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>109</v>
       </c>
-      <c r="E29">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29">
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
         <v>18.099999999999898</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>3.25</v>
       </c>
-      <c r="I29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
       <c r="B30">
         <v>10902</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>29.071999999999999</v>
+      </c>
+      <c r="D30">
         <v>349</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>86</v>
       </c>
-      <c r="E30">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30">
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30">
         <v>18.099999999999898</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>3.25</v>
       </c>
-      <c r="I30">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
       <c r="B31">
         <v>20655</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>55.08</v>
+      </c>
+      <c r="D31">
         <v>375</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>86</v>
       </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-      <c r="F31" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31">
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31">
         <v>19.599999999999898</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>3.25</v>
       </c>
-      <c r="I31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
       <c r="B32">
         <v>20661</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>55.095999999999997</v>
+      </c>
+      <c r="D32">
         <v>375</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>102</v>
       </c>
-      <c r="E32">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32">
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32">
         <v>19.599999999999898</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>3.25</v>
       </c>
-      <c r="I32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33">
         <v>25914</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>69.103999999999999</v>
+      </c>
+      <c r="D33">
         <v>389</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>102</v>
       </c>
-      <c r="E33">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33">
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33">
         <v>19.599999999999898</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>3.25</v>
       </c>
-      <c r="I33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
       <c r="B34">
         <v>20</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="D34">
         <v>400</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>138</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>3</v>
       </c>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34">
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34">
         <v>19.599999999999898</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>3.25</v>
       </c>
-      <c r="I34">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6</v>
       </c>
       <c r="B35">
         <v>3022</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0586666666666673</v>
+      </c>
+      <c r="D35">
         <v>408</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>138</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>3</v>
       </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35">
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35">
         <v>20.049999999999901</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>3.7</v>
       </c>
-      <c r="I35">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6</v>
       </c>
       <c r="B36">
         <v>3027</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>8.0719999999999992</v>
+      </c>
+      <c r="D36">
         <v>408</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>122</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>1</v>
       </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36">
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36">
         <v>20.049999999999901</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>3.7</v>
       </c>
-      <c r="I36">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6</v>
       </c>
       <c r="B37">
         <v>3779</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>10.077333333333334</v>
+      </c>
+      <c r="D37">
         <v>410</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>122</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>1</v>
       </c>
-      <c r="F37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37">
+      <c r="G37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37">
         <v>20.1999999999999</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>3.85</v>
       </c>
-      <c r="I37">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6</v>
       </c>
       <c r="B38">
         <v>3784</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>10.090666666666667</v>
+      </c>
+      <c r="D38">
         <v>410</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>132</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>7</v>
       </c>
-      <c r="F38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38">
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38">
         <v>20.1999999999999</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>3.85</v>
       </c>
-      <c r="I38">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6</v>
       </c>
       <c r="B39">
         <v>10537</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>28.098666666666666</v>
+      </c>
+      <c r="D39">
         <v>428</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>132</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>7</v>
       </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39">
+      <c r="G39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39">
         <v>21.249999999999901</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6</v>
       </c>
       <c r="B40">
         <v>10540</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>28.106666666666666</v>
+      </c>
+      <c r="D40">
         <v>428</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>125</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>3</v>
       </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40">
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40">
         <v>21.249999999999901</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I40">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
       <c r="B41">
         <v>12042</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>32.112000000000002</v>
+      </c>
+      <c r="D41">
         <v>432</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>125</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>3</v>
       </c>
-      <c r="F41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41">
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41">
         <v>21.6999999999999</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I41">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
       <c r="B42">
         <v>12045</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>32.119999999999997</v>
+      </c>
+      <c r="D42">
         <v>432</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>139</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>3</v>
       </c>
-      <c r="F42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42">
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42">
         <v>21.6999999999999</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I42">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
       <c r="B43">
         <v>13547</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>36.12533333333333</v>
+      </c>
+      <c r="D43">
         <v>436</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>139</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>3</v>
       </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43">
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43">
         <v>22.149999999999899</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6</v>
       </c>
       <c r="B44">
         <v>13550</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>36.133333333333333</v>
+      </c>
+      <c r="D44">
         <v>436</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>149</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>3</v>
       </c>
-      <c r="F44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44">
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44">
         <v>22.149999999999899</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>6</v>
       </c>
       <c r="B45">
         <v>15052</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>40.138666666666666</v>
+      </c>
+      <c r="D45">
         <v>440</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>149</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>3</v>
       </c>
-      <c r="F45" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45">
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45">
         <v>22.599999999999898</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I45">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>6</v>
       </c>
       <c r="B46">
         <v>15055</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>40.146666666666668</v>
+      </c>
+      <c r="D46">
         <v>440</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>153</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>4</v>
       </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46">
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46">
         <v>22.599999999999898</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I46">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
       <c r="B47">
         <v>17308</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>46.154666666666664</v>
+      </c>
+      <c r="D47">
         <v>446</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>153</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>4</v>
       </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47">
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47">
         <v>23.1999999999999</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I47">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
       <c r="B48">
         <v>17314</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>46.170666666666669</v>
+      </c>
+      <c r="D48">
         <v>446</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>137</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>4</v>
       </c>
-      <c r="F48" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48">
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H48">
         <v>23.1999999999999</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I48">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
       <c r="B49">
         <v>21066</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>56.176000000000002</v>
+      </c>
+      <c r="D49">
         <v>456</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>137</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>4</v>
       </c>
-      <c r="F49" t="s">
-        <v>10</v>
-      </c>
-      <c r="G49">
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49">
         <v>23.1999999999999</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>5.5</v>
       </c>
-      <c r="I49">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
       <c r="B50">
         <v>21072</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>56.192</v>
+      </c>
+      <c r="D50">
         <v>456</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>143</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>8</v>
       </c>
-      <c r="F50" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50">
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50">
         <v>23.1999999999999</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>5.5</v>
       </c>
-      <c r="I50">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
       <c r="B51">
         <v>25575</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>68.2</v>
+      </c>
+      <c r="D51">
         <v>468</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>143</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>8</v>
       </c>
-      <c r="F51" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51">
+      <c r="G51" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51">
         <v>23.1999999999999</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>5.5</v>
       </c>
-      <c r="I51">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
       <c r="B52">
         <v>17</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5333333333333337E-2</v>
+      </c>
+      <c r="D52">
         <v>480</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>189</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>6</v>
       </c>
-      <c r="F52" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52">
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+      <c r="H52">
         <v>23.1999999999999</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>5.5</v>
       </c>
-      <c r="I52">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>7</v>
       </c>
       <c r="B53">
         <v>4143</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>11.048</v>
+      </c>
+      <c r="D53">
         <v>491</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>189</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>6</v>
       </c>
-      <c r="F53" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53">
+      <c r="G53" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53">
         <v>24.099999999999898</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>6.4</v>
       </c>
-      <c r="I53">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>7</v>
       </c>
       <c r="B54">
         <v>4149</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>11.064</v>
+      </c>
+      <c r="D54">
         <v>491</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>177</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>5</v>
       </c>
-      <c r="F54" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54">
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54">
         <v>24.099999999999898</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>6.4</v>
       </c>
-      <c r="I54">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>7</v>
       </c>
       <c r="B55">
         <v>7902</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>21.071999999999999</v>
+      </c>
+      <c r="D55">
         <v>501</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>177</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>5</v>
       </c>
-      <c r="F55" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55">
+      <c r="G55" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55">
         <v>24.849999999999898</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>7.15</v>
       </c>
-      <c r="I55">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
       <c r="B56">
         <v>7908</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
+        <f t="shared" si="0"/>
+        <v>21.088000000000001</v>
+      </c>
+      <c r="D56">
         <v>501</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>174</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>7</v>
       </c>
-      <c r="F56" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56">
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56">
         <v>24.849999999999898</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>7.15</v>
       </c>
-      <c r="I56">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7</v>
       </c>
       <c r="B57">
         <v>12035</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
+        <f t="shared" si="0"/>
+        <v>32.093333333333334</v>
+      </c>
+      <c r="D57">
         <v>512</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>174</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>7</v>
       </c>
-      <c r="F57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57">
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57">
         <v>25.899999999999899</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>7.15</v>
       </c>
-      <c r="I57">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
       <c r="B58">
         <v>12042</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
+        <f t="shared" si="0"/>
+        <v>32.112000000000002</v>
+      </c>
+      <c r="D58">
         <v>512</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>164</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>3</v>
       </c>
-      <c r="F58" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58">
+      <c r="G58" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58">
         <v>25.899999999999899</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>7.15</v>
       </c>
-      <c r="I58">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
       <c r="B59">
         <v>13544</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
+        <f t="shared" si="0"/>
+        <v>36.117333333333335</v>
+      </c>
+      <c r="D59">
         <v>516</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>164</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>3</v>
       </c>
-      <c r="F59" t="s">
-        <v>10</v>
-      </c>
-      <c r="G59">
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59">
         <v>26.349999999999898</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>7.15</v>
       </c>
-      <c r="I59">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
       <c r="B60">
         <v>13551</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
+        <f t="shared" si="0"/>
+        <v>36.136000000000003</v>
+      </c>
+      <c r="D60">
         <v>516</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>190</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>5</v>
       </c>
-      <c r="F60" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60">
+      <c r="G60" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60">
         <v>26.349999999999898</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>7.15</v>
       </c>
-      <c r="I60">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
       <c r="B61">
         <v>16553</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
+        <f t="shared" si="0"/>
+        <v>44.141333333333336</v>
+      </c>
+      <c r="D61">
         <v>524</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>190</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>5</v>
       </c>
-      <c r="F61" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61">
+      <c r="G61" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61">
         <v>27.099999999999898</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>7.15</v>
       </c>
-      <c r="I61">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
       <c r="B62">
         <v>16559</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
+        <f t="shared" si="0"/>
+        <v>44.157333333333334</v>
+      </c>
+      <c r="D62">
         <v>524</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>180</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>2</v>
       </c>
-      <c r="F62" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62">
+      <c r="G62" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62">
         <v>27.099999999999898</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>7.15</v>
       </c>
-      <c r="I62">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
       <c r="B63">
         <v>17686</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
+        <f t="shared" si="0"/>
+        <v>47.162666666666667</v>
+      </c>
+      <c r="D63">
         <v>527</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>180</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>2</v>
       </c>
-      <c r="F63" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63">
+      <c r="G63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63">
         <v>27.399999999999899</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>7.15</v>
       </c>
-      <c r="I63">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
       <c r="B64">
         <v>17696</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
+        <f t="shared" si="0"/>
+        <v>47.18933333333333</v>
+      </c>
+      <c r="D64">
         <v>527</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>195</v>
       </c>
-      <c r="E64">
-        <v>9</v>
-      </c>
-      <c r="F64" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64">
+      <c r="F64">
+        <v>9</v>
+      </c>
+      <c r="G64" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64">
         <v>27.399999999999899</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>7.15</v>
       </c>
-      <c r="I64">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
       <c r="B65">
         <v>26699</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
+        <f t="shared" si="0"/>
+        <v>71.197333333333333</v>
+      </c>
+      <c r="D65">
         <v>551</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>195</v>
       </c>
-      <c r="E65">
-        <v>9</v>
-      </c>
-      <c r="F65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65">
+      <c r="F65">
+        <v>9</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65">
         <v>27.399999999999899</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>8.5</v>
       </c>
-      <c r="I65">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
       <c r="B66">
         <v>17</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
+        <f t="shared" si="0"/>
+        <v>4.5333333333333337E-2</v>
+      </c>
+      <c r="D66">
         <v>560</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>231</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>7</v>
       </c>
-      <c r="F66" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66">
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66">
         <v>27.399999999999899</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>8.5</v>
       </c>
-      <c r="I66">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>8</v>
       </c>
       <c r="B67">
         <v>4519</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
+        <f t="shared" ref="C67:C130" si="1">B67/375</f>
+        <v>12.050666666666666</v>
+      </c>
+      <c r="D67">
         <v>572</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>231</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>7</v>
       </c>
-      <c r="F67" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67">
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67">
         <v>28.4499999999999</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>9.5500000000000007</v>
       </c>
-      <c r="I67">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>8</v>
       </c>
       <c r="B68">
         <v>4524</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
+        <f t="shared" si="1"/>
+        <v>12.064</v>
+      </c>
+      <c r="D68">
         <v>572</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>221</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>7</v>
       </c>
-      <c r="F68" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68">
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68">
         <v>28.4499999999999</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>9.5500000000000007</v>
       </c>
-      <c r="I68">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
       <c r="B69">
         <v>9777</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
+        <f t="shared" si="1"/>
+        <v>26.071999999999999</v>
+      </c>
+      <c r="D69">
         <v>586</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>221</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>7</v>
       </c>
-      <c r="F69" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69">
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69">
         <v>29.499999999999901</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>10.6</v>
       </c>
-      <c r="I69">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>8</v>
       </c>
       <c r="B70">
         <v>9783</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
+        <f t="shared" si="1"/>
+        <v>26.088000000000001</v>
+      </c>
+      <c r="D70">
         <v>586</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>210</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>3</v>
       </c>
-      <c r="F70" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70">
+      <c r="G70" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70">
         <v>29.499999999999901</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>10.6</v>
       </c>
-      <c r="I70">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8</v>
       </c>
       <c r="B71">
         <v>11285</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
+        <f t="shared" si="1"/>
+        <v>30.093333333333334</v>
+      </c>
+      <c r="D71">
         <v>590</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>210</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>3</v>
       </c>
-      <c r="F71" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71">
+      <c r="G71" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71">
         <v>29.9499999999999</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>10.6</v>
       </c>
-      <c r="I71">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
       <c r="B72">
         <v>11290</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="2">
+        <f t="shared" si="1"/>
+        <v>30.106666666666666</v>
+      </c>
+      <c r="D72">
         <v>590</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>207</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>7</v>
       </c>
-      <c r="F72" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72">
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72">
         <v>29.9499999999999</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>10.6</v>
       </c>
-      <c r="I72">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>8</v>
       </c>
       <c r="B73">
         <v>16542</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
+        <f t="shared" si="1"/>
+        <v>44.112000000000002</v>
+      </c>
+      <c r="D73">
         <v>604</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>207</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>7</v>
       </c>
-      <c r="F73" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73">
+      <c r="G73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73">
         <v>29.9499999999999</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>11.65</v>
       </c>
-      <c r="I73">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>8</v>
       </c>
       <c r="B74">
         <v>16547</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
+        <f t="shared" si="1"/>
+        <v>44.12533333333333</v>
+      </c>
+      <c r="D74">
         <v>604</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>198</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>6</v>
       </c>
-      <c r="F74" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74">
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74">
         <v>29.9499999999999</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>11.65</v>
       </c>
-      <c r="I74">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>8</v>
       </c>
       <c r="B75">
         <v>21050</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
+        <f t="shared" si="1"/>
+        <v>56.133333333333333</v>
+      </c>
+      <c r="D75">
         <v>616</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>198</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>6</v>
       </c>
-      <c r="F75" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75">
+      <c r="G75" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75">
         <v>29.9499999999999</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>12.55</v>
       </c>
-      <c r="I75">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>8</v>
       </c>
       <c r="B76">
         <v>21056</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
+        <f t="shared" si="1"/>
+        <v>56.149333333333331</v>
+      </c>
+      <c r="D76">
         <v>616</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>215</v>
       </c>
-      <c r="E76">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76">
+      <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76">
         <v>29.9499999999999</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>12.55</v>
       </c>
-      <c r="I76">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>8</v>
       </c>
       <c r="B77">
         <v>28559</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="2">
+        <f t="shared" si="1"/>
+        <v>76.157333333333327</v>
+      </c>
+      <c r="D77">
         <v>636</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>215</v>
       </c>
-      <c r="E77">
-        <v>10</v>
-      </c>
-      <c r="F77" t="s">
-        <v>10</v>
-      </c>
-      <c r="G77">
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77">
         <v>29.9499999999999</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>14.05</v>
       </c>
-      <c r="I77">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>8</v>
       </c>
       <c r="B78">
         <v>28565</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
+        <f t="shared" si="1"/>
+        <v>76.173333333333332</v>
+      </c>
+      <c r="D78">
         <v>636</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>211</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>2</v>
       </c>
-      <c r="F78" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78">
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78">
         <v>29.9499999999999</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>14.05</v>
       </c>
-      <c r="I78">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>8</v>
       </c>
       <c r="B79">
         <v>30067</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
+        <f t="shared" si="1"/>
+        <v>80.178666666666672</v>
+      </c>
+      <c r="D79">
         <v>640</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>211</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>2</v>
       </c>
-      <c r="F79" t="s">
-        <v>10</v>
-      </c>
-      <c r="G79">
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79">
         <v>29.9499999999999</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>14.35</v>
       </c>
-      <c r="I79">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>10</v>
       </c>
       <c r="B80">
         <v>20</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3333333333333337E-2</v>
+      </c>
+      <c r="D80">
         <v>720</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>213</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>4</v>
       </c>
-      <c r="F80" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80">
+      <c r="G80" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80">
         <v>29.9499999999999</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>14.35</v>
       </c>
-      <c r="I80">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>10</v>
       </c>
       <c r="B81">
         <v>3022</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
+        <f t="shared" si="1"/>
+        <v>8.0586666666666673</v>
+      </c>
+      <c r="D81">
         <v>728</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>213</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>4</v>
       </c>
-      <c r="F81" t="s">
-        <v>10</v>
-      </c>
-      <c r="G81">
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81">
         <v>29.9499999999999</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>14.95</v>
       </c>
-      <c r="I81">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>10</v>
       </c>
       <c r="B82">
         <v>3032</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
+        <f t="shared" si="1"/>
+        <v>8.0853333333333328</v>
+      </c>
+      <c r="D82">
         <v>728</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>208</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>2</v>
       </c>
-      <c r="F82" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82">
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82">
         <v>29.9499999999999</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>14.95</v>
       </c>
-      <c r="I82">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>10</v>
       </c>
       <c r="B83">
         <v>4159</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
+        <f t="shared" si="1"/>
+        <v>11.090666666666667</v>
+      </c>
+      <c r="D83">
         <v>731</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>208</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>2</v>
       </c>
-      <c r="F83" t="s">
-        <v>10</v>
-      </c>
-      <c r="G83">
+      <c r="G83" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83">
         <v>29.9499999999999</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>14.95</v>
       </c>
-      <c r="I83">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>10</v>
       </c>
       <c r="B84">
         <v>4164</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="2">
+        <f t="shared" si="1"/>
+        <v>11.103999999999999</v>
+      </c>
+      <c r="D84">
         <v>731</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>224</v>
       </c>
-      <c r="E84">
-        <v>10</v>
-      </c>
-      <c r="F84" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84">
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84">
         <v>29.9499999999999</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>14.95</v>
       </c>
-      <c r="I84">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>10</v>
       </c>
       <c r="B85">
         <v>10167</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
+        <f t="shared" si="1"/>
+        <v>27.111999999999998</v>
+      </c>
+      <c r="D85">
         <v>747</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>224</v>
       </c>
-      <c r="E85">
-        <v>10</v>
-      </c>
-      <c r="F85" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85">
+      <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85">
         <v>29.9499999999999</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>14.95</v>
       </c>
-      <c r="I85">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>11</v>
       </c>
       <c r="B86">
         <v>22</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
+        <f t="shared" si="1"/>
+        <v>5.8666666666666666E-2</v>
+      </c>
+      <c r="D86">
         <v>800</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>252</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>5</v>
       </c>
-      <c r="F86" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86">
+      <c r="G86" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86">
         <v>29.9499999999999</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>14.95</v>
       </c>
-      <c r="I86">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>11</v>
       </c>
       <c r="B87">
         <v>3399</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0640000000000001</v>
+      </c>
+      <c r="D87">
         <v>809</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>252</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>5</v>
       </c>
-      <c r="F87" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87">
-        <v>30</v>
+      <c r="G87" t="s">
+        <v>10</v>
       </c>
       <c r="H87">
+        <v>30</v>
+      </c>
+      <c r="I87">
         <v>15.7</v>
       </c>
-      <c r="I87">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>11</v>
       </c>
       <c r="B88">
         <v>3401</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0693333333333328</v>
+      </c>
+      <c r="D88">
         <v>809</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>250</v>
       </c>
-      <c r="E88">
-        <v>9</v>
-      </c>
-      <c r="F88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88">
-        <v>30</v>
+      <c r="F88">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>9</v>
       </c>
       <c r="H88">
+        <v>30</v>
+      </c>
+      <c r="I88">
         <v>15.7</v>
       </c>
-      <c r="I88">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>11</v>
       </c>
       <c r="B89">
         <v>9403</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="2">
+        <f t="shared" si="1"/>
+        <v>25.074666666666666</v>
+      </c>
+      <c r="D89">
         <v>825</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>250</v>
       </c>
-      <c r="E89">
-        <v>9</v>
-      </c>
-      <c r="F89" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89">
-        <v>30</v>
+      <c r="F89">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>10</v>
       </c>
       <c r="H89">
+        <v>30</v>
+      </c>
+      <c r="I89">
         <v>17.05</v>
       </c>
-      <c r="I89">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>11</v>
       </c>
       <c r="B90">
         <v>9409</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="2">
+        <f t="shared" si="1"/>
+        <v>25.090666666666667</v>
+      </c>
+      <c r="D90">
         <v>825</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>272</v>
       </c>
-      <c r="E90">
-        <v>9</v>
-      </c>
-      <c r="F90" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90">
-        <v>30</v>
+      <c r="F90">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>9</v>
       </c>
       <c r="H90">
+        <v>30</v>
+      </c>
+      <c r="I90">
         <v>17.05</v>
       </c>
-      <c r="I90">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>11</v>
       </c>
       <c r="B91">
         <v>16161</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="2">
+        <f t="shared" si="1"/>
+        <v>43.095999999999997</v>
+      </c>
+      <c r="D91">
         <v>843</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>272</v>
       </c>
-      <c r="E91">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91">
-        <v>30</v>
+      <c r="F91">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
+        <v>10</v>
       </c>
       <c r="H91">
+        <v>30</v>
+      </c>
+      <c r="I91">
         <v>18.399999999999999</v>
       </c>
-      <c r="I91">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>11</v>
       </c>
       <c r="B92">
         <v>16167</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="2">
+        <f t="shared" si="1"/>
+        <v>43.112000000000002</v>
+      </c>
+      <c r="D92">
         <v>843</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>266</v>
       </c>
-      <c r="E92">
-        <v>9</v>
-      </c>
-      <c r="F92" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92">
-        <v>30</v>
+      <c r="F92">
+        <v>9</v>
+      </c>
+      <c r="G92" t="s">
+        <v>9</v>
       </c>
       <c r="H92">
+        <v>30</v>
+      </c>
+      <c r="I92">
         <v>18.399999999999999</v>
       </c>
-      <c r="I92">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>11</v>
       </c>
       <c r="B93">
         <v>25170</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="2">
+        <f t="shared" si="1"/>
+        <v>67.12</v>
+      </c>
+      <c r="D93">
         <v>867</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>266</v>
       </c>
-      <c r="E93">
-        <v>9</v>
-      </c>
-      <c r="F93" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93">
-        <v>30</v>
+      <c r="F93">
+        <v>9</v>
+      </c>
+      <c r="G93" t="s">
+        <v>10</v>
       </c>
       <c r="H93">
+        <v>30</v>
+      </c>
+      <c r="I93">
         <v>19.75</v>
       </c>
-      <c r="I93">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>12</v>
       </c>
       <c r="B94">
         <v>22</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="2">
+        <f t="shared" si="1"/>
+        <v>5.8666666666666666E-2</v>
+      </c>
+      <c r="D94">
         <v>880</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>290</v>
       </c>
-      <c r="E94">
-        <v>9</v>
-      </c>
-      <c r="F94" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94">
-        <v>30</v>
+      <c r="F94">
+        <v>9</v>
+      </c>
+      <c r="G94" t="s">
+        <v>9</v>
       </c>
       <c r="H94">
+        <v>30</v>
+      </c>
+      <c r="I94">
         <v>19.75</v>
       </c>
-      <c r="I94">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>12</v>
       </c>
       <c r="B95">
         <v>6024</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="2">
+        <f t="shared" si="1"/>
+        <v>16.064</v>
+      </c>
+      <c r="D95">
         <v>896</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>290</v>
       </c>
-      <c r="E95">
-        <v>9</v>
-      </c>
-      <c r="F95" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95">
-        <v>30</v>
+      <c r="F95">
+        <v>9</v>
+      </c>
+      <c r="G95" t="s">
+        <v>10</v>
       </c>
       <c r="H95">
+        <v>30</v>
+      </c>
+      <c r="I95">
         <v>21.1</v>
       </c>
-      <c r="I95">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>12</v>
       </c>
       <c r="B96">
         <v>6036</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="2">
+        <f t="shared" si="1"/>
+        <v>16.096</v>
+      </c>
+      <c r="D96">
         <v>896</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>308</v>
       </c>
-      <c r="E96">
-        <v>10</v>
-      </c>
-      <c r="F96" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96">
-        <v>30</v>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>9</v>
       </c>
       <c r="H96">
+        <v>30</v>
+      </c>
+      <c r="I96">
         <v>21.1</v>
       </c>
-      <c r="I96">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>12</v>
       </c>
       <c r="B97">
         <v>12038</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="2">
+        <f t="shared" si="1"/>
+        <v>32.101333333333336</v>
+      </c>
+      <c r="D97">
         <v>912</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>308</v>
       </c>
-      <c r="E97">
-        <v>10</v>
-      </c>
-      <c r="F97" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97">
-        <v>30</v>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>10</v>
       </c>
       <c r="H97">
+        <v>30</v>
+      </c>
+      <c r="I97">
         <v>22.6</v>
       </c>
-      <c r="I97">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>12</v>
       </c>
       <c r="B98">
         <v>12041</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="2">
+        <f t="shared" si="1"/>
+        <v>32.109333333333332</v>
+      </c>
+      <c r="D98">
         <v>912</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>319</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>5</v>
       </c>
-      <c r="F98" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98">
-        <v>30</v>
+      <c r="G98" t="s">
+        <v>9</v>
       </c>
       <c r="H98">
+        <v>30</v>
+      </c>
+      <c r="I98">
         <v>22.6</v>
       </c>
-      <c r="I98">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>12</v>
       </c>
       <c r="B99">
         <v>15044</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="2">
+        <f t="shared" si="1"/>
+        <v>40.117333333333335</v>
+      </c>
+      <c r="D99">
         <v>920</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>319</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>5</v>
       </c>
-      <c r="F99" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99">
-        <v>30</v>
+      <c r="G99" t="s">
+        <v>10</v>
       </c>
       <c r="H99">
+        <v>30</v>
+      </c>
+      <c r="I99">
         <v>23.35</v>
       </c>
-      <c r="I99">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>12</v>
       </c>
       <c r="B100">
         <v>15047</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="2">
+        <f t="shared" si="1"/>
+        <v>40.12533333333333</v>
+      </c>
+      <c r="D100">
         <v>920</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>297</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>8</v>
       </c>
-      <c r="F100" t="s">
-        <v>9</v>
-      </c>
-      <c r="G100">
-        <v>30</v>
+      <c r="G100" t="s">
+        <v>9</v>
       </c>
       <c r="H100">
+        <v>30</v>
+      </c>
+      <c r="I100">
         <v>23.35</v>
       </c>
-      <c r="I100">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>12</v>
       </c>
       <c r="B101">
         <v>19549</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="2">
+        <f t="shared" si="1"/>
+        <v>52.13066666666667</v>
+      </c>
+      <c r="D101">
         <v>932</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>297</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>8</v>
       </c>
-      <c r="F101" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101">
-        <v>30</v>
+      <c r="G101" t="s">
+        <v>10</v>
       </c>
       <c r="H101">
+        <v>30</v>
+      </c>
+      <c r="I101">
         <v>24.55</v>
       </c>
-      <c r="I101">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>12</v>
       </c>
       <c r="B102">
         <v>19555</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="2">
+        <f t="shared" si="1"/>
+        <v>52.146666666666668</v>
+      </c>
+      <c r="D102">
         <v>932</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>312</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>4</v>
       </c>
-      <c r="F102" t="s">
-        <v>9</v>
-      </c>
-      <c r="G102">
-        <v>30</v>
+      <c r="G102" t="s">
+        <v>9</v>
       </c>
       <c r="H102">
+        <v>30</v>
+      </c>
+      <c r="I102">
         <v>24.55</v>
       </c>
-      <c r="I102">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>12</v>
       </c>
       <c r="B103">
         <v>21807</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="2">
+        <f t="shared" si="1"/>
+        <v>58.152000000000001</v>
+      </c>
+      <c r="D103">
         <v>938</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>312</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>4</v>
       </c>
-      <c r="F103" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103">
-        <v>30</v>
+      <c r="G103" t="s">
+        <v>10</v>
       </c>
       <c r="H103">
+        <v>30</v>
+      </c>
+      <c r="I103">
         <v>25.15</v>
       </c>
-      <c r="I103">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>13</v>
       </c>
       <c r="B104">
         <v>21</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="2">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D104">
         <v>960</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>333</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>6</v>
       </c>
-      <c r="F104" t="s">
-        <v>9</v>
-      </c>
-      <c r="G104">
-        <v>30</v>
+      <c r="G104" t="s">
+        <v>9</v>
       </c>
       <c r="H104">
+        <v>30</v>
+      </c>
+      <c r="I104">
         <v>25.15</v>
       </c>
-      <c r="I104">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>13</v>
       </c>
       <c r="B105">
         <v>3398</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0613333333333337</v>
+      </c>
+      <c r="D105">
         <v>969</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>333</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>6</v>
       </c>
-      <c r="F105" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105">
-        <v>30</v>
+      <c r="G105" t="s">
+        <v>10</v>
       </c>
       <c r="H105">
+        <v>30</v>
+      </c>
+      <c r="I105">
         <v>26.05</v>
       </c>
-      <c r="I105">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>13</v>
       </c>
       <c r="B106">
         <v>3403</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0746666666666673</v>
+      </c>
+      <c r="D106">
         <v>969</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>334</v>
       </c>
-      <c r="E106">
-        <v>10</v>
-      </c>
-      <c r="F106" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106">
-        <v>30</v>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>9</v>
       </c>
       <c r="H106">
+        <v>30</v>
+      </c>
+      <c r="I106">
         <v>26.05</v>
       </c>
-      <c r="I106">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>13</v>
       </c>
       <c r="B107">
         <v>9406</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="2">
+        <f t="shared" si="1"/>
+        <v>25.082666666666668</v>
+      </c>
+      <c r="D107">
         <v>985</v>
       </c>
-      <c r="D107">
+      <c r="E107">
         <v>334</v>
       </c>
-      <c r="E107">
-        <v>10</v>
-      </c>
-      <c r="F107" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107">
-        <v>30</v>
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>10</v>
       </c>
       <c r="H107">
+        <v>30</v>
+      </c>
+      <c r="I107">
         <v>27.55</v>
       </c>
-      <c r="I107">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>13</v>
       </c>
       <c r="B108">
         <v>9414</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="2">
+        <f t="shared" si="1"/>
+        <v>25.103999999999999</v>
+      </c>
+      <c r="D108">
         <v>985</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>347</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>5</v>
       </c>
-      <c r="F108" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108">
-        <v>30</v>
+      <c r="G108" t="s">
+        <v>9</v>
       </c>
       <c r="H108">
+        <v>30</v>
+      </c>
+      <c r="I108">
         <v>27.55</v>
       </c>
-      <c r="I108">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>13</v>
       </c>
       <c r="B109">
         <v>12416</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="2">
+        <f t="shared" si="1"/>
+        <v>33.109333333333332</v>
+      </c>
+      <c r="D109">
         <v>993</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>347</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>5</v>
       </c>
-      <c r="F109" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109">
-        <v>30</v>
+      <c r="G109" t="s">
+        <v>10</v>
       </c>
       <c r="H109">
+        <v>30</v>
+      </c>
+      <c r="I109">
         <v>28.3</v>
       </c>
-      <c r="I109">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>13</v>
       </c>
       <c r="B110">
         <v>12419</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="2">
+        <f t="shared" si="1"/>
+        <v>33.117333333333335</v>
+      </c>
+      <c r="D110">
         <v>993</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>354</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>3</v>
       </c>
-      <c r="F110" t="s">
-        <v>9</v>
-      </c>
-      <c r="G110">
-        <v>30</v>
+      <c r="G110" t="s">
+        <v>9</v>
       </c>
       <c r="H110">
+        <v>30</v>
+      </c>
+      <c r="I110">
         <v>28.3</v>
       </c>
-      <c r="I110">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>13</v>
       </c>
       <c r="B111">
         <v>13921</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="2">
+        <f t="shared" si="1"/>
+        <v>37.122666666666667</v>
+      </c>
+      <c r="D111">
         <v>997</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>354</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>3</v>
       </c>
-      <c r="F111" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111">
-        <v>30</v>
+      <c r="G111" t="s">
+        <v>10</v>
       </c>
       <c r="H111">
+        <v>30</v>
+      </c>
+      <c r="I111">
         <v>28.75</v>
       </c>
-      <c r="I111">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>13</v>
       </c>
       <c r="B112">
         <v>13927</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="2">
+        <f t="shared" si="1"/>
+        <v>37.138666666666666</v>
+      </c>
+      <c r="D112">
         <v>997</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>360</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>3</v>
       </c>
-      <c r="F112" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112">
-        <v>30</v>
+      <c r="G112" t="s">
+        <v>9</v>
       </c>
       <c r="H112">
+        <v>30</v>
+      </c>
+      <c r="I112">
         <v>28.75</v>
       </c>
-      <c r="I112">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>13</v>
       </c>
       <c r="B113">
         <v>15429</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="2">
+        <f t="shared" si="1"/>
+        <v>41.143999999999998</v>
+      </c>
+      <c r="D113">
         <v>1001</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>360</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>3</v>
       </c>
-      <c r="F113" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113">
-        <v>30</v>
+      <c r="G113" t="s">
+        <v>10</v>
       </c>
       <c r="H113">
+        <v>30</v>
+      </c>
+      <c r="I113">
         <v>29.2</v>
       </c>
-      <c r="I113">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>13</v>
       </c>
       <c r="B114">
         <v>15439</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="2">
+        <f t="shared" si="1"/>
+        <v>41.170666666666669</v>
+      </c>
+      <c r="D114">
         <v>1001</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>365</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>3</v>
       </c>
-      <c r="F114" t="s">
-        <v>9</v>
-      </c>
-      <c r="G114">
-        <v>30</v>
+      <c r="G114" t="s">
+        <v>9</v>
       </c>
       <c r="H114">
+        <v>30</v>
+      </c>
+      <c r="I114">
         <v>29.2</v>
       </c>
-      <c r="I114">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>13</v>
       </c>
       <c r="B115">
         <v>16941</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="2">
+        <f t="shared" si="1"/>
+        <v>45.176000000000002</v>
+      </c>
+      <c r="D115">
         <v>1005</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>365</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>3</v>
       </c>
-      <c r="F115" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115">
-        <v>30</v>
+      <c r="G115" t="s">
+        <v>10</v>
       </c>
       <c r="H115">
+        <v>30</v>
+      </c>
+      <c r="I115">
         <v>29.65</v>
       </c>
-      <c r="I115">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>13</v>
       </c>
       <c r="B116">
         <v>16947</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="2">
+        <f t="shared" si="1"/>
+        <v>45.192</v>
+      </c>
+      <c r="D116">
         <v>1005</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>364</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>2</v>
       </c>
-      <c r="F116" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116">
-        <v>30</v>
+      <c r="G116" t="s">
+        <v>9</v>
       </c>
       <c r="H116">
+        <v>30</v>
+      </c>
+      <c r="I116">
         <v>29.65</v>
       </c>
-      <c r="I116">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>13</v>
       </c>
       <c r="B117">
         <v>18075</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="2">
+        <f t="shared" si="1"/>
+        <v>48.2</v>
+      </c>
+      <c r="D117">
         <v>1008</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>364</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>2</v>
       </c>
-      <c r="F117" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117">
-        <v>30</v>
+      <c r="G117" t="s">
+        <v>10</v>
       </c>
       <c r="H117">
+        <v>30</v>
+      </c>
+      <c r="I117">
         <v>29.95</v>
       </c>
-      <c r="I117">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>13</v>
       </c>
       <c r="B118">
         <v>18081</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="2">
+        <f t="shared" si="1"/>
+        <v>48.216000000000001</v>
+      </c>
+      <c r="D118">
         <v>1008</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>363</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>4</v>
       </c>
-      <c r="F118" t="s">
-        <v>9</v>
-      </c>
-      <c r="G118">
-        <v>30</v>
+      <c r="G118" t="s">
+        <v>9</v>
       </c>
       <c r="H118">
+        <v>30</v>
+      </c>
+      <c r="I118">
         <v>29.95</v>
       </c>
-      <c r="I118">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>13</v>
       </c>
       <c r="B119">
         <v>20333</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="2">
+        <f t="shared" si="1"/>
+        <v>54.221333333333334</v>
+      </c>
+      <c r="D119">
         <v>1014</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>363</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>4</v>
       </c>
-      <c r="F119" t="s">
-        <v>10</v>
-      </c>
-      <c r="G119">
-        <v>30</v>
+      <c r="G119" t="s">
+        <v>10</v>
       </c>
       <c r="H119">
         <v>30</v>
@@ -6966,28 +7545,32 @@
       <c r="I119">
         <v>30</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>13</v>
       </c>
       <c r="B120">
         <v>20339</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="2">
+        <f t="shared" si="1"/>
+        <v>54.237333333333332</v>
+      </c>
+      <c r="D120">
         <v>1014</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>367</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>8</v>
       </c>
-      <c r="F120" t="s">
-        <v>9</v>
-      </c>
-      <c r="G120">
-        <v>30</v>
+      <c r="G120" t="s">
+        <v>9</v>
       </c>
       <c r="H120">
         <v>30</v>
@@ -6995,28 +7578,32 @@
       <c r="I120">
         <v>30</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>13</v>
       </c>
       <c r="B121">
         <v>24841</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="2">
+        <f t="shared" si="1"/>
+        <v>66.242666666666665</v>
+      </c>
+      <c r="D121">
         <v>1026</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>367</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>8</v>
       </c>
-      <c r="F121" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121">
-        <v>30</v>
+      <c r="G121" t="s">
+        <v>10</v>
       </c>
       <c r="H121">
         <v>30</v>
@@ -7024,28 +7611,32 @@
       <c r="I121">
         <v>30</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>13</v>
       </c>
       <c r="B122">
         <v>24847</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="2">
+        <f t="shared" si="1"/>
+        <v>66.25866666666667</v>
+      </c>
+      <c r="D122">
         <v>1026</v>
       </c>
-      <c r="D122">
+      <c r="E122">
         <v>376</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>8</v>
       </c>
-      <c r="F122" t="s">
-        <v>9</v>
-      </c>
-      <c r="G122">
-        <v>30</v>
+      <c r="G122" t="s">
+        <v>9</v>
       </c>
       <c r="H122">
         <v>30</v>
@@ -7053,28 +7644,32 @@
       <c r="I122">
         <v>30</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>13</v>
       </c>
       <c r="B123">
         <v>29350</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="2">
+        <f t="shared" si="1"/>
+        <v>78.266666666666666</v>
+      </c>
+      <c r="D123">
         <v>1038</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>376</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>8</v>
       </c>
-      <c r="F123" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123">
-        <v>30</v>
+      <c r="G123" t="s">
+        <v>10</v>
       </c>
       <c r="H123">
         <v>30</v>
@@ -7082,28 +7677,32 @@
       <c r="I123">
         <v>30</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>14</v>
       </c>
       <c r="B124">
         <v>22</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="2">
+        <f t="shared" si="1"/>
+        <v>5.8666666666666666E-2</v>
+      </c>
+      <c r="D124">
         <v>1040</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>382</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>7</v>
       </c>
-      <c r="F124" t="s">
-        <v>9</v>
-      </c>
-      <c r="G124">
-        <v>30</v>
+      <c r="G124" t="s">
+        <v>9</v>
       </c>
       <c r="H124">
         <v>30</v>
@@ -7111,28 +7710,32 @@
       <c r="I124">
         <v>30</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>14</v>
       </c>
       <c r="B125">
         <v>4149</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="2">
+        <f t="shared" si="1"/>
+        <v>11.064</v>
+      </c>
+      <c r="D125">
         <v>1051</v>
       </c>
-      <c r="D125">
+      <c r="E125">
         <v>382</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>7</v>
       </c>
-      <c r="F125" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125">
-        <v>30</v>
+      <c r="G125" t="s">
+        <v>10</v>
       </c>
       <c r="H125">
         <v>30</v>
@@ -7140,28 +7743,32 @@
       <c r="I125">
         <v>30</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>14</v>
       </c>
       <c r="B126">
         <v>4154</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="2">
+        <f t="shared" si="1"/>
+        <v>11.077333333333334</v>
+      </c>
+      <c r="D126">
         <v>1051</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>392</v>
       </c>
-      <c r="E126">
-        <v>9</v>
-      </c>
-      <c r="F126" t="s">
-        <v>9</v>
-      </c>
-      <c r="G126">
-        <v>30</v>
+      <c r="F126">
+        <v>9</v>
+      </c>
+      <c r="G126" t="s">
+        <v>9</v>
       </c>
       <c r="H126">
         <v>30</v>
@@ -7169,28 +7776,32 @@
       <c r="I126">
         <v>30</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>14</v>
       </c>
       <c r="B127">
         <v>9407</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="2">
+        <f t="shared" si="1"/>
+        <v>25.085333333333335</v>
+      </c>
+      <c r="D127">
         <v>1065</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>392</v>
       </c>
-      <c r="E127">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>10</v>
-      </c>
-      <c r="G127">
-        <v>30</v>
+      <c r="F127">
+        <v>9</v>
+      </c>
+      <c r="G127" t="s">
+        <v>10</v>
       </c>
       <c r="H127">
         <v>30</v>
@@ -7198,28 +7809,32 @@
       <c r="I127">
         <v>30</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>14</v>
       </c>
       <c r="B128">
         <v>9414</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="2">
+        <f t="shared" si="1"/>
+        <v>25.103999999999999</v>
+      </c>
+      <c r="D128">
         <v>1065</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>400</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>1</v>
       </c>
-      <c r="F128" t="s">
-        <v>9</v>
-      </c>
-      <c r="G128">
-        <v>30</v>
+      <c r="G128" t="s">
+        <v>9</v>
       </c>
       <c r="H128">
         <v>30</v>
@@ -7227,28 +7842,32 @@
       <c r="I128">
         <v>30</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>14</v>
       </c>
       <c r="B129">
         <v>9791</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="2">
+        <f t="shared" si="1"/>
+        <v>26.109333333333332</v>
+      </c>
+      <c r="D129">
         <v>1066</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>400</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>1</v>
       </c>
-      <c r="F129" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129">
-        <v>30</v>
+      <c r="G129" t="s">
+        <v>10</v>
       </c>
       <c r="H129">
         <v>30</v>
@@ -7256,28 +7875,32 @@
       <c r="I129">
         <v>30</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>14</v>
       </c>
       <c r="B130">
         <v>9797</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="2">
+        <f t="shared" si="1"/>
+        <v>26.125333333333334</v>
+      </c>
+      <c r="D130">
         <v>1066</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>378</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>8</v>
       </c>
-      <c r="F130" t="s">
-        <v>9</v>
-      </c>
-      <c r="G130">
-        <v>30</v>
+      <c r="G130" t="s">
+        <v>9</v>
       </c>
       <c r="H130">
         <v>30</v>
@@ -7285,38 +7908,46 @@
       <c r="I130">
         <v>30</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>14</v>
       </c>
       <c r="B131">
         <v>14299</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="2">
+        <f t="shared" ref="C131" si="2">B131/375</f>
+        <v>38.13066666666667</v>
+      </c>
+      <c r="D131">
         <v>1078</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>378</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>8</v>
       </c>
-      <c r="F131" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131">
-        <v>30</v>
+      <c r="G131" t="s">
+        <v>10</v>
       </c>
       <c r="H131">
         <v>30</v>
       </c>
       <c r="I131">
+        <v>30</v>
+      </c>
+      <c r="J131">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>